--- a/Resources/Jmeter Assignment 1 (Stress test).xlsx
+++ b/Resources/Jmeter Assignment 1 (Stress test).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>StressTest Stratedy</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Test Value</t>
   </si>
   <si>
-    <t>Expected TPS</t>
-  </si>
-  <si>
     <t>Test-1</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Test-12</t>
+  </si>
+  <si>
+    <t>Test-13</t>
+  </si>
+  <si>
+    <t>Test-14</t>
   </si>
   <si>
     <t>capacity TPS</t>
@@ -299,11 +302,11 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -650,7 +653,7 @@
         <v>30.0</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D17" si="1">C4*60</f>
+        <f t="shared" ref="D4:D18" si="1">C4*60</f>
         <v>1800</v>
       </c>
       <c r="E4" s="13">
@@ -694,11 +697,11 @@
         <v>7000.0</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="F5:F17" si="2">E5/D5</f>
+        <f t="shared" ref="F5:F18" si="2">E5/D5</f>
         <v>3.888888889</v>
       </c>
       <c r="G5" s="17">
-        <v>0.0</v>
+        <v>4.0E-4</v>
       </c>
       <c r="H5" s="4"/>
       <c r="L5" s="4"/>
@@ -719,10 +722,10 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" ht="30.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="13">
         <v>30.0</v>
       </c>
@@ -733,7 +736,7 @@
       <c r="E6" s="13">
         <v>9000.0</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -759,7 +762,7 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
@@ -771,14 +774,14 @@
         <v>1800</v>
       </c>
       <c r="E7" s="13">
-        <v>12000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="2"/>
-        <v>6.666666667</v>
+        <v>8.333333333</v>
       </c>
-      <c r="G7" s="17">
-        <v>0.0</v>
+      <c r="G7" s="20">
+        <v>1.0E-4</v>
       </c>
       <c r="H7" s="4"/>
       <c r="L7" s="4"/>
@@ -798,8 +801,8 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" ht="28.5" customHeight="1">
-      <c r="A8" s="18" t="s">
+    <row r="8" ht="32.25" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="12"/>
@@ -811,16 +814,19 @@
         <v>1800</v>
       </c>
       <c r="E8" s="13">
-        <v>15000.0</v>
+        <v>60000.0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>8.333333333</v>
+        <v>33.33333333</v>
       </c>
       <c r="G8" s="20">
-        <v>0.0</v>
+        <v>1.0E-4</v>
       </c>
       <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -839,7 +845,7 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" ht="32.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="12"/>
@@ -851,14 +857,14 @@
         <v>1800</v>
       </c>
       <c r="E9" s="13">
-        <v>30000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="2"/>
-        <v>16.66666667</v>
+        <v>55.55555556</v>
       </c>
       <c r="G9" s="20">
-        <v>1.0E-4</v>
+        <v>5.0E-4</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -882,7 +888,7 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" ht="32.25" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="12"/>
@@ -894,14 +900,14 @@
         <v>1800</v>
       </c>
       <c r="E10" s="13">
-        <v>60000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="2"/>
-        <v>33.33333333</v>
+        <v>277.7777778</v>
       </c>
       <c r="G10" s="20">
-        <v>0.0</v>
+        <v>0.7933</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -925,7 +931,7 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" ht="32.25" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="12"/>
@@ -937,14 +943,14 @@
         <v>1800</v>
       </c>
       <c r="E11" s="13">
-        <v>100000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="2"/>
-        <v>55.55555556</v>
+        <v>222.2222222</v>
       </c>
       <c r="G11" s="20">
-        <v>3.0E-4</v>
+        <v>0.69</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -968,7 +974,7 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="12"/>
@@ -980,16 +986,15 @@
         <v>1800</v>
       </c>
       <c r="E12" s="13">
-        <v>500000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="2"/>
-        <v>277.7777778</v>
+        <v>166.6666667</v>
       </c>
       <c r="G12" s="20">
-        <v>0.7455</v>
+        <v>0.57</v>
       </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1011,7 +1016,7 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" ht="32.25" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="12"/>
@@ -1023,16 +1028,18 @@
         <v>1800</v>
       </c>
       <c r="E13" s="13">
-        <v>350000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="2"/>
-        <v>194.4444444</v>
+        <v>83.33333333</v>
       </c>
       <c r="G13" s="20">
-        <v>0.711</v>
+        <v>0.012</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1054,8 +1061,8 @@
       <c r="AA13" s="4"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
+      <c r="A14" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13">
@@ -1066,18 +1073,16 @@
         <v>1800</v>
       </c>
       <c r="E14" s="13">
-        <v>150000.0</v>
+        <v>130000.0</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>83.33333333</v>
+        <v>72.22222222</v>
       </c>
       <c r="G14" s="20">
-        <v>0.0051</v>
+        <v>0.0035</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1099,7 +1104,7 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" ht="32.25" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="12"/>
@@ -1118,9 +1123,8 @@
         <v>50</v>
       </c>
       <c r="G15" s="20">
-        <v>2.0E-4</v>
+        <v>8.0E-4</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1142,7 +1146,7 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="12"/>
@@ -1154,16 +1158,16 @@
         <v>1800</v>
       </c>
       <c r="E16" s="13">
-        <v>80000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>44.44444444</v>
+        <v>33.33333333</v>
       </c>
       <c r="G16" s="20">
-        <v>1.0E-4</v>
+        <v>5.0E-4</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1185,7 +1189,7 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="12"/>
@@ -1197,18 +1201,16 @@
         <v>1800</v>
       </c>
       <c r="E17" s="13">
-        <v>75000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="2"/>
-        <v>41.66666667</v>
+        <v>27.77777778</v>
       </c>
       <c r="G17" s="20">
-        <v>0.0</v>
+        <v>6.0E-4</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1229,17 +1231,31 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" s="22" t="s">
+    <row r="18" ht="32.25" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="E18" s="13">
+        <v>30000.0</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="2"/>
+        <v>16.66666667</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1261,13 +1277,15 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1290,13 +1308,13 @@
       <c r="AA19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -29738,12 +29756,41 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="4"/>
+      <c r="B1001" s="4"/>
+      <c r="C1001" s="4"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="K1001" s="4"/>
+      <c r="L1001" s="4"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+      <c r="AA1001" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I4:K8"/>
-    <mergeCell ref="A18:G19"/>
+    <mergeCell ref="I4:K7"/>
+    <mergeCell ref="A19:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
